--- a/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table37.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table37.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A246FF99-F64C-4548-9868-5402C6A0BDA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B80040-90FA-3449-8D84-AE70046D0493}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20680" yWindow="5200" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="44">
   <si>
     <t>Value</t>
   </si>
@@ -34,15 +34,9 @@
     <t>Mcrro Bay</t>
   </si>
   <si>
-    <t>Albacorc</t>
-  </si>
-  <si>
     <t>Kockfish</t>
   </si>
   <si>
-    <t>W hitc scabaiv</t>
-  </si>
-  <si>
     <t>Ocean shrimp</t>
   </si>
   <si>
@@ -58,9 +52,6 @@
     <t>Port San Luis (Avila)</t>
   </si>
   <si>
-    <t>Jack mackrn 1</t>
-  </si>
-  <si>
     <t>San Simeon</t>
   </si>
   <si>
@@ -73,9 +64,6 @@
     <t>species</t>
   </si>
   <si>
-    <t>Jack marker 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">(Jiant Pacific oyster  </t>
   </si>
   <si>
@@ -88,18 +76,9 @@
     <t>Crab</t>
   </si>
   <si>
-    <t>Pctralc sole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ii ircikJ  </t>
-  </si>
-  <si>
     <t>Totals</t>
   </si>
   <si>
-    <t>SworJIisli</t>
-  </si>
-  <si>
     <t>Pacific mackerel</t>
   </si>
   <si>
@@ -109,15 +88,9 @@
     <t xml:space="preserve">Sardine </t>
   </si>
   <si>
-    <t xml:space="preserve">Ktitllish sole </t>
-  </si>
-  <si>
     <t xml:space="preserve">All other </t>
   </si>
   <si>
-    <t xml:space="preserve">S inline  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Pacific mackerel  </t>
   </si>
   <si>
@@ -130,30 +103,18 @@
     <t xml:space="preserve">Petrale sole </t>
   </si>
   <si>
-    <t>(’rib</t>
-  </si>
-  <si>
     <t xml:space="preserve">Anchovy </t>
   </si>
   <si>
     <t xml:space="preserve">Totals  </t>
   </si>
   <si>
-    <t xml:space="preserve">Total?  </t>
-  </si>
-  <si>
     <t xml:space="preserve">All other  </t>
   </si>
   <si>
-    <t>Tot ib</t>
-  </si>
-  <si>
     <t>Perch</t>
   </si>
   <si>
-    <t xml:space="preserve">Spiny lolwter </t>
-  </si>
-  <si>
     <t>White seabass</t>
   </si>
   <si>
@@ -173,6 +134,24 @@
   </si>
   <si>
     <t>Port Hueneme</t>
+  </si>
+  <si>
+    <t>Albacore</t>
+  </si>
+  <si>
+    <t>Rockfish</t>
+  </si>
+  <si>
+    <t>Lingcod</t>
+  </si>
+  <si>
+    <t>Spiny lobster</t>
+  </si>
+  <si>
+    <t>Swordfish</t>
+  </si>
+  <si>
+    <t>English sole</t>
   </si>
 </sst>
 </file>
@@ -539,7 +518,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -552,10 +531,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -580,7 +559,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2">
         <v>652915</v>
@@ -594,7 +573,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2">
         <v>141667</v>
@@ -608,7 +587,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2">
         <v>96982</v>
@@ -622,7 +601,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2">
         <v>64265</v>
@@ -636,7 +615,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2">
         <v>32149</v>
@@ -650,7 +629,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2">
         <v>30715</v>
@@ -664,7 +643,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2">
         <v>29471</v>
@@ -678,7 +657,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2">
         <v>15920</v>
@@ -692,7 +671,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2">
         <v>11905</v>
@@ -706,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2">
         <v>10742</v>
@@ -720,7 +699,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2">
         <v>8531</v>
@@ -734,7 +713,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2">
         <v>8051</v>
@@ -748,7 +727,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
         <v>5934</v>
@@ -762,7 +741,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2">
         <v>13771</v>
@@ -776,7 +755,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2">
         <v>1123018</v>
@@ -787,7 +766,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C19" s="4">
         <f>SUM(C4:C17)-C18</f>
@@ -800,10 +779,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" s="2">
         <v>161191</v>
@@ -814,10 +793,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2">
         <v>64560</v>
@@ -828,10 +807,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C22" s="2">
         <v>50746</v>
@@ -842,10 +821,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2">
         <v>34585</v>
@@ -856,10 +835,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2">
         <v>27328</v>
@@ -870,10 +849,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C25" s="2">
         <v>24588</v>
@@ -884,10 +863,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="2">
         <v>20253</v>
@@ -898,10 +877,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C27" s="2">
         <v>19945</v>
@@ -912,10 +891,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C28" s="2">
         <v>11238</v>
@@ -926,10 +905,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C29" s="2">
         <v>9352</v>
@@ -940,10 +919,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C30" s="2">
         <v>12744</v>
@@ -954,10 +933,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C31" s="2">
         <v>436530</v>
@@ -968,7 +947,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C32" s="4">
         <f>SUM(C20:C30)-C31</f>
@@ -981,10 +960,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C33" s="2">
         <v>325184</v>
@@ -995,10 +974,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C34" s="2">
         <v>49361</v>
@@ -1009,10 +988,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C35" s="2">
         <v>24546</v>
@@ -1023,10 +1002,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" s="2">
         <v>13825</v>
@@ -1037,10 +1016,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C37" s="2">
         <v>15125</v>
@@ -1051,10 +1030,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C38" s="2">
         <v>428041</v>
@@ -1065,7 +1044,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C39" s="4">
         <f>SUM(C33:C37)-C38</f>
@@ -1078,10 +1057,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C40" s="2">
         <v>215162</v>
@@ -1092,10 +1071,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C41" s="2">
         <v>94189</v>
@@ -1106,10 +1085,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C42" s="2">
         <v>40040</v>
@@ -1120,10 +1099,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C43" s="2">
         <v>19597</v>
@@ -1134,10 +1113,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C44" s="2">
         <v>14933</v>
@@ -1148,10 +1127,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C45" s="2">
         <v>10566</v>
@@ -1162,10 +1141,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C46" s="2">
         <v>8096</v>
@@ -1176,10 +1155,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C47" s="2">
         <v>6001</v>
@@ -1190,10 +1169,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C48" s="2">
         <v>16417</v>
@@ -1204,10 +1183,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C49" s="2">
         <v>425001</v>
@@ -1218,7 +1197,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C50" s="4">
         <f>SUM(C40:C48)-C49</f>
@@ -1231,10 +1210,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C51" s="2">
         <v>24236</v>
@@ -1245,10 +1224,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C52" s="2">
         <v>24236</v>
@@ -1259,17 +1238,17 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C54" s="2">
         <v>15323</v>
@@ -1280,10 +1259,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C55" s="2">
         <v>1593</v>
@@ -1294,10 +1273,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C56" s="2">
         <v>16916</v>
@@ -1308,7 +1287,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C57" s="4">
         <f>SUM(C54:C55)-C56</f>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table37.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table37.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B80040-90FA-3449-8D84-AE70046D0493}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86121815-6A6D-D148-86DB-6CE144C68F05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20680" yWindow="5200" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="44">
   <si>
     <t>Value</t>
   </si>
@@ -518,14 +518,14 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -544,8 +544,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2">
         <v>2453742</v>
